--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATKUL\SEMESTER 7\PEMBELAJARAN MESIN\TUGBES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATKUL\SEMESTER 7\PEMBELAJARAN MESIN\TUGBES\TUGAS REPO\TugaspraktikumML-140_175\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9562154-9432-477D-9782-C4AF0929C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB0FE7-FEA0-455F-B2B2-C8ABB21612B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -61,7 +61,28 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>CNN</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>20 oktober</t>
+  </si>
+  <si>
+    <t>24 oktober</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Done</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>30 oktober</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -555,15 +576,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -573,30 +594,46 @@
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -618,64 +655,75 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATKUL\SEMESTER 7\PEMBELAJARAN MESIN\TUGBES\TUGAS REPO\TugaspraktikumML-140_175\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATKUL\SEMESTER 7\PEMBELAJARAN MESIN\PRAKTIKUM\Tugas Praktikum\TugaspraktikumML-140_175\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB0FE7-FEA0-455F-B2B2-C8ABB21612B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92869F24-CC99-450D-9614-C10392BD8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -46,50 +46,59 @@
     <t xml:space="preserve">Augmentasi </t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Frontend web</t>
-  </si>
-  <si>
-    <t>Backend web</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>20 oktober</t>
-  </si>
-  <si>
-    <t>24 oktober</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Done</t>
   </si>
   <si>
     <t>Modelling</t>
   </si>
   <si>
-    <t>30 oktober</t>
-  </si>
-  <si>
     <t>Ongoing</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Oversampling/Downsampling</t>
+  </si>
+  <si>
+    <t>Pretrained Model</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Modul 1</t>
+  </si>
+  <si>
+    <t>Modul 2</t>
+  </si>
+  <si>
+    <t>Modul 3</t>
+  </si>
+  <si>
+    <t>Modul 4</t>
+  </si>
+  <si>
+    <t>Modul 5</t>
+  </si>
+  <si>
+    <t>Modul 6</t>
+  </si>
+  <si>
+    <t>Pengerjaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,6 +131,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -137,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -319,16 +335,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,6 +403,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,65 +641,85 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="20">
+        <v>44489</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44493</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44493</v>
+      </c>
+      <c r="C3" s="21">
+        <v>44499</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -658,74 +740,110 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="22">
+        <v>44499</v>
+      </c>
+      <c r="C4" s="22">
+        <v>44510</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23">
+        <v>44510</v>
+      </c>
+      <c r="C5" s="23">
+        <v>44524</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22">
+        <v>44524</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44538</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
+    <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="24">
+        <v>44538</v>
+      </c>
+      <c r="C7" s="24">
+        <v>44552</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>6</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
